--- a/StructureDefinition-authorization-type.xlsx
+++ b/StructureDefinition-authorization-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T11:21:42+02:00</t>
+    <t>2025-01-08T16:54:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
